--- a/Team-Data/2012-13/4-13-2012-13.xlsx
+++ b/Team-Data/2012-13/4-13-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -780,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
         <v>39</v>
       </c>
       <c r="G3" t="n">
-        <v>0.513</v>
+        <v>0.506</v>
       </c>
       <c r="H3" t="n">
         <v>49</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
         <v>79.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L3" t="n">
         <v>6.1</v>
@@ -878,7 +945,7 @@
         <v>17.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.358</v>
+        <v>0.354</v>
       </c>
       <c r="O3" t="n">
         <v>16.4</v>
@@ -899,13 +966,13 @@
         <v>39.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
         <v>4.5</v>
@@ -914,19 +981,19 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
         <v>19.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -956,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
@@ -977,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV3" t="n">
         <v>14</v>
@@ -992,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
         <v>18</v>
@@ -1001,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>61</v>
       </c>
       <c r="G5" t="n">
-        <v>0.238</v>
+        <v>0.228</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1233,16 +1300,16 @@
         <v>81.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O5" t="n">
         <v>18.9</v>
@@ -1257,40 +1324,40 @@
         <v>11.3</v>
       </c>
       <c r="S5" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T5" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
         <v>14.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
         <v>5.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z5" t="n">
         <v>19.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
         <v>93.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1317,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN5" t="n">
         <v>27</v>
@@ -1335,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT5" t="n">
         <v>27</v>
@@ -1344,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1511,7 +1578,7 @@
         <v>20</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1708,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>16</v>
@@ -1720,7 +1787,7 @@
         <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1884,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1908,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2224,7 +2291,7 @@
         <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2627,7 +2694,7 @@
         <v>27</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.675</v>
+        <v>0.671</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2886,7 +2953,7 @@
         <v>16.5</v>
       </c>
       <c r="P14" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.711</v>
@@ -2895,22 +2962,22 @@
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T14" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V14" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W14" t="n">
         <v>9.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y14" t="n">
         <v>4.1</v>
@@ -2922,25 +2989,25 @@
         <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC14" t="n">
         <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
@@ -2973,7 +3040,7 @@
         <v>14</v>
       </c>
       <c r="AS14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT14" t="n">
         <v>18</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3000,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3189,7 @@
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" t="n">
         <v>54</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.675</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3244,22 +3311,22 @@
         <v>13.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O16" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P16" t="n">
         <v>21.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
         <v>12.8</v>
       </c>
       <c r="S16" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T16" t="n">
         <v>42.5</v>
@@ -3286,22 +3353,22 @@
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>17</v>
@@ -3313,7 +3380,7 @@
         <v>18</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3331,7 +3398,7 @@
         <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -3578,52 +3645,52 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
         <v>37</v>
       </c>
       <c r="F18" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" t="n">
-        <v>0.463</v>
+        <v>0.468</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J18" t="n">
         <v>87.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O18" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R18" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S18" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T18" t="n">
         <v>43.9</v>
@@ -3650,13 +3717,13 @@
         <v>19.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
@@ -3668,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
         <v>6</v>
@@ -3686,7 +3753,7 @@
         <v>12</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -3760,64 +3827,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
         <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>0.375</v>
+        <v>0.367</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J19" t="n">
         <v>81.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M19" t="n">
         <v>17.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.305</v>
+        <v>0.304</v>
       </c>
       <c r="O19" t="n">
         <v>18.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.742</v>
+        <v>0.74</v>
       </c>
       <c r="R19" t="n">
         <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T19" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U19" t="n">
         <v>22.4</v>
       </c>
       <c r="V19" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X19" t="n">
         <v>4.8</v>
@@ -3826,19 +3893,19 @@
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
         <v>22.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
@@ -3850,7 +3917,7 @@
         <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3883,25 +3950,25 @@
         <v>10</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU19" t="n">
         <v>15</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>16</v>
       </c>
       <c r="AV19" t="n">
         <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
         <v>6</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4099,7 @@
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>4.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" t="n">
-        <v>0.25</v>
+        <v>0.253</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4515,7 +4582,7 @@
         <v>6.3</v>
       </c>
       <c r="M23" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N23" t="n">
         <v>0.332</v>
@@ -4527,13 +4594,13 @@
         <v>16.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R23" t="n">
         <v>10.8</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
         <v>42.8</v>
@@ -4542,10 +4609,10 @@
         <v>22.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W23" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
         <v>4.4</v>
@@ -4554,7 +4621,7 @@
         <v>5.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA23" t="n">
         <v>16.4</v>
@@ -4563,10 +4630,10 @@
         <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.8</v>
+        <v>-6.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4590,7 +4657,7 @@
         <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>18</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4766,19 +4833,19 @@
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>19</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3</v>
+        <v>0.304</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4870,10 +4937,10 @@
         <v>37.2</v>
       </c>
       <c r="J25" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L25" t="n">
         <v>5.8</v>
@@ -4882,31 +4949,31 @@
         <v>17.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.331</v>
+        <v>0.329</v>
       </c>
       <c r="O25" t="n">
         <v>14.7</v>
       </c>
       <c r="P25" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q25" t="n">
         <v>0.744</v>
       </c>
       <c r="R25" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S25" t="n">
         <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V25" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W25" t="n">
         <v>8</v>
@@ -4927,19 +4994,19 @@
         <v>94.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
       </c>
       <c r="AF25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
@@ -4948,7 +5015,7 @@
         <v>16</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
         <v>23</v>
@@ -4966,7 +5033,7 @@
         <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
@@ -4981,7 +5048,7 @@
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5339,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT27" t="n">
         <v>26</v>
@@ -5348,7 +5415,7 @@
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5533,7 +5600,7 @@
         <v>18</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5679,7 +5746,7 @@
         <v>16</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>15</v>
@@ -5718,7 +5785,7 @@
         <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5934,7 @@
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN30" t="n">
         <v>8</v>
@@ -5879,7 +5946,7 @@
         <v>10</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5891,7 +5958,7 @@
         <v>16</v>
       </c>
       <c r="AU30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV30" t="n">
         <v>19</v>
@@ -5915,7 +5982,7 @@
         <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF31" t="n">
         <v>23</v>
@@ -6091,13 +6158,13 @@
         <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
       </c>
       <c r="BC31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-13-2012-13</t>
+          <t>2013-04-13</t>
         </is>
       </c>
     </row>
